--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2179253.59764327</v>
+        <v>2174995.331990034</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>147.2463593138663</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916584</v>
+        <v>1.360597680916698</v>
       </c>
       <c r="S2" t="n">
         <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>194.7987448787258</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.018744405379</v>
+        <v>98.51394015369115</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370739</v>
+        <v>45.84481919370742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353355</v>
+        <v>21.62032152353362</v>
       </c>
       <c r="S3" t="n">
-        <v>148.187383735635</v>
+        <v>148.1873837356351</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -797,7 +797,7 @@
         <v>225.8581620548773</v>
       </c>
       <c r="V3" t="n">
-        <v>231.2957828977376</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -822,25 +822,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>42.92251201308751</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.382756997752</v>
+        <v>18.38275699775205</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>95.70808861955065</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>24.73861252451693</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>53.90345055048468</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>122.0974423103674</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.97610158809172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>183.1828740622151</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>108.3806858784542</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.980384243200406</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>150.54422965444</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>76.17049831699767</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>107.387005480723</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>35.41770597126623</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.6452826062324948</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>37.01163236946177</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>93.05052491174689</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>173.1053154594631</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>266.6707094398014</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>172.5702346036273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>151.8518831495031</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>140.5758943588665</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>140.575894358866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2223.264582792537</v>
+        <v>1249.759001784194</v>
       </c>
       <c r="C2" t="n">
-        <v>1854.302065852125</v>
+        <v>880.7964848437823</v>
       </c>
       <c r="D2" t="n">
-        <v>1705.568369575493</v>
+        <v>880.7964848437823</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.780116977249</v>
+        <v>880.7964848437823</v>
       </c>
       <c r="F2" t="n">
-        <v>908.7942121876411</v>
+        <v>469.8105800541747</v>
       </c>
       <c r="G2" t="n">
-        <v>491.6845516730792</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870191</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512381</v>
+        <v>239.520839851238</v>
       </c>
       <c r="K2" t="n">
-        <v>640.2602765776278</v>
+        <v>640.2602765776273</v>
       </c>
       <c r="L2" t="n">
-        <v>1076.736677582737</v>
+        <v>776.2050087789634</v>
       </c>
       <c r="M2" t="n">
-        <v>1704.689221504359</v>
+        <v>959.1391545426812</v>
       </c>
       <c r="N2" t="n">
-        <v>2328.170696544993</v>
+        <v>1422.405955251802</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>1965.954194448896</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016428</v>
+        <v>2392.185658263123</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4360,22 +4360,22 @@
         <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.958036347466</v>
+        <v>2280.191627379056</v>
       </c>
       <c r="U2" t="n">
-        <v>2223.264582792537</v>
+        <v>2026.498173824127</v>
       </c>
       <c r="V2" t="n">
-        <v>2223.264582792537</v>
+        <v>2026.498173824127</v>
       </c>
       <c r="W2" t="n">
-        <v>2223.264582792537</v>
+        <v>2026.498173824127</v>
       </c>
       <c r="X2" t="n">
-        <v>2223.264582792537</v>
+        <v>2026.498173824127</v>
       </c>
       <c r="Y2" t="n">
-        <v>2223.264582792537</v>
+        <v>1636.358841848316</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507485</v>
+        <v>99.0088177150749</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496333</v>
       </c>
       <c r="K3" t="n">
-        <v>118.4560672099612</v>
+        <v>497.8519368624344</v>
       </c>
       <c r="L3" t="n">
-        <v>620.3264609475551</v>
+        <v>999.722330600028</v>
       </c>
       <c r="M3" t="n">
-        <v>993.1165734874711</v>
+        <v>1176.312616922416</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.29045279018</v>
+        <v>1437.313937931689</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751183</v>
+        <v>1984.020177892693</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2405.797066257506</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4445,16 +4445,16 @@
         <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>544.6640822582531</v>
+        <v>1874.827630379059</v>
       </c>
       <c r="C4" t="n">
-        <v>375.7278993303462</v>
+        <v>1705.891447451152</v>
       </c>
       <c r="D4" t="n">
-        <v>225.6112599180105</v>
+        <v>1705.891447451152</v>
       </c>
       <c r="E4" t="n">
-        <v>225.6112599180105</v>
+        <v>1705.891447451152</v>
       </c>
       <c r="F4" t="n">
-        <v>225.6112599180105</v>
+        <v>1662.535374710659</v>
       </c>
       <c r="G4" t="n">
-        <v>225.6112599180105</v>
+        <v>1662.535374710659</v>
       </c>
       <c r="H4" t="n">
-        <v>71.26936095148356</v>
+        <v>1662.535374710659</v>
       </c>
       <c r="I4" t="n">
-        <v>71.26936095148356</v>
+        <v>1662.535374710659</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>1643.966933298789</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131524</v>
+        <v>1743.897338472328</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039132</v>
+        <v>1927.300286863089</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856114</v>
+        <v>2131.062104044787</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066368</v>
+        <v>2335.413537065812</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249424</v>
+        <v>2508.148865184117</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>2632.433097110493</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221468</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221468</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221468</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221468</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221468</v>
+        <v>2345.893265246259</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221468</v>
+        <v>2345.893265246259</v>
       </c>
       <c r="W4" t="n">
-        <v>947.1051262320229</v>
+        <v>2056.476095209298</v>
       </c>
       <c r="X4" t="n">
-        <v>947.1051262320229</v>
+        <v>2056.476095209298</v>
       </c>
       <c r="Y4" t="n">
-        <v>726.3125470884928</v>
+        <v>2056.476095209298</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1951.214434366958</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="C5" t="n">
-        <v>1582.251917426546</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="D5" t="n">
-        <v>1223.986218819796</v>
+        <v>1321.010788540012</v>
       </c>
       <c r="E5" t="n">
-        <v>1198.997721320284</v>
+        <v>935.2225359417673</v>
       </c>
       <c r="F5" t="n">
-        <v>788.0118165306759</v>
+        <v>524.2366311521598</v>
       </c>
       <c r="G5" t="n">
-        <v>370.9240347671034</v>
+        <v>107.1488493885873</v>
       </c>
       <c r="H5" t="n">
         <v>52.70091953961285</v>
@@ -4573,16 +4573,16 @@
         <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>1030.215540799241</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M5" t="n">
-        <v>1661.933351782553</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N5" t="n">
-        <v>2289.241019842399</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>2459.410045159359</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V5" t="n">
-        <v>2303.983089637072</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.214434366958</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X5" t="n">
-        <v>1951.214434366958</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="Y5" t="n">
-        <v>1951.214434366958</v>
+        <v>1679.276487146762</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>89.49481119935454</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>157.1026308627116</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>661.4641707288301</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1302.009520195935</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N6" t="n">
-        <v>1954.183399498644</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2503.619408251367</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
         <v>2612.309035778665</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.4313707195215</v>
+        <v>519.6668354622486</v>
       </c>
       <c r="C7" t="n">
-        <v>515.4951877916146</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D7" t="n">
-        <v>365.3785483792789</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E7" t="n">
-        <v>217.4654547968858</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>696.5284430307253</v>
+        <v>929.3048511905057</v>
       </c>
       <c r="X7" t="n">
-        <v>696.5284430307253</v>
+        <v>701.3153002924884</v>
       </c>
       <c r="Y7" t="n">
-        <v>684.4313707195215</v>
+        <v>701.3153002924884</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>476.7342020523889</v>
+        <v>562.9027416397564</v>
       </c>
       <c r="C8" t="n">
-        <v>476.7342020523889</v>
+        <v>562.9027416397564</v>
       </c>
       <c r="D8" t="n">
-        <v>476.7342020523889</v>
+        <v>562.9027416397564</v>
       </c>
       <c r="E8" t="n">
-        <v>476.7342020523889</v>
+        <v>562.9027416397564</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>555.957240890553</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961285</v>
@@ -4810,19 +4810,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>996.277937792829</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1623.585605852676</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2525.570536699376</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2310.770674967087</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2310.770674967087</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V8" t="n">
-        <v>1979.707787623516</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.939132353402</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X8" t="n">
-        <v>1253.473374092323</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="Y8" t="n">
-        <v>863.3340421165108</v>
+        <v>562.9027416397564</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L9" t="n">
-        <v>453.4876558703395</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M9" t="n">
-        <v>1094.033005337444</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N9" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.5116902268824</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4989,25 +4989,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>619.566119563728</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W10" t="n">
-        <v>467.5012411248997</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X10" t="n">
-        <v>239.5116902268824</v>
+        <v>280.5443918580929</v>
       </c>
       <c r="Y10" t="n">
-        <v>239.5116902268824</v>
+        <v>59.75181271456276</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.311282967905</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.456448622809</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2043.85498364575</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499469</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571562</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159226</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159226</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376196</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218394</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4403.547127064018</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4114.471900408216</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>4114.471900408216</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.054730371256</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.065179473238</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329708</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,61 +5965,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6031,10 +6031,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6305,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1258.847511649361</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1030.857960751344</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>810.0653816078141</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6779,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>809.0422355233313</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>640.1060525954244</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2272.649715293768</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2272.649715293768</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1439.472830395119</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.483279497101</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.6907003535711</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,22 +7259,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7627,43 +7627,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7690,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>303.567342226033</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>275.5139200367186</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872885</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>198.1816426439672</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579961</v>
+        <v>65.98845490200054</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,19 +8221,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>194.7955419930571</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>30.21968338400237</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>43.39875231298058</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>378.0407240669646</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8458,13 +8458,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>25.69892682098336</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,22 +8534,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>197.9286046986622</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.773338340300088e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.773338340300088e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-9.640568469461882e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>72.44497470121469</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>72.44497470121425</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>65.72996410388916</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>180.3938179578265</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>193.1339494774973</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>113.4176828771279</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>19.85228889678962</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>8.456051398017252</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>66.73277020259169</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>4.845153664064782</v>
       </c>
       <c r="G43" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516057</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516056</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516055</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516057</v>
-      </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752544</v>
@@ -26334,28 +26334,28 @@
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752549</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918874</v>
+        <v>787455.5478918869</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500201</v>
+        <v>4906.247008500592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002809</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909053</v>
+        <v>190891.9800909054</v>
       </c>
       <c r="C4" t="n">
-        <v>189891.8124216189</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
         <v>189891.8124216188</v>
@@ -26429,37 +26429,37 @@
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707334</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707422</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.424496707335</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707399</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051734</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26524,46 +26524,46 @@
         <v>-469592.8661017044</v>
       </c>
       <c r="C6" t="n">
-        <v>313839.1458840109</v>
+        <v>313839.1458840107</v>
       </c>
       <c r="D6" t="n">
-        <v>318745.3928925113</v>
+        <v>318745.3928925112</v>
       </c>
       <c r="E6" t="n">
-        <v>-298527.0168219447</v>
+        <v>-298874.3960763012</v>
       </c>
       <c r="F6" t="n">
-        <v>477161.33045464</v>
+        <v>476813.9512002832</v>
       </c>
       <c r="G6" t="n">
-        <v>477161.3304546399</v>
+        <v>476813.9512002831</v>
       </c>
       <c r="H6" t="n">
-        <v>477161.33045464</v>
+        <v>476813.9512002831</v>
       </c>
       <c r="I6" t="n">
-        <v>477161.33045464</v>
+        <v>476813.9512002831</v>
       </c>
       <c r="J6" t="n">
-        <v>304800.3380543592</v>
+        <v>304452.9588000019</v>
       </c>
       <c r="K6" t="n">
-        <v>477161.3304546398</v>
+        <v>476813.951200283</v>
       </c>
       <c r="L6" t="n">
-        <v>477161.33045464</v>
+        <v>476813.9512002833</v>
       </c>
       <c r="M6" t="n">
-        <v>349083.7336389262</v>
+        <v>348736.3543845689</v>
       </c>
       <c r="N6" t="n">
-        <v>477161.3304546401</v>
+        <v>476813.9512002834</v>
       </c>
       <c r="O6" t="n">
-        <v>477161.3304546401</v>
+        <v>476813.9512002833</v>
       </c>
       <c r="P6" t="n">
-        <v>477161.3304546398</v>
+        <v>476813.9512002827</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225496</v>
+        <v>588.0881844225491</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225496</v>
+        <v>588.0881844225491</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515451</v>
+        <v>5.38791591551588</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451609</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4366823068167</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>17.94793472637156</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.50480425168783</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.504804251687688</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>102.4985360098437</v>
       </c>
       <c r="G4" t="n">
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>129.6100444894002</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
@@ -27593,19 +27593,19 @@
         <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>190.8149097170403</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>357.1917575477448</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>261.1374335247309</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>164.4255560262235</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.6085517640031</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>229.7340298837217</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>46.27220124968599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>172.8515959387369</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>135.978768682151</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30762,7 +30762,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>8.411472576664805e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718791</v>
+        <v>2.364173605718789</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956757</v>
+        <v>24.21209293956755</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447376</v>
+        <v>91.14480293447369</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683754</v>
+        <v>200.6562795683752</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984519</v>
+        <v>300.7317482984516</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844684</v>
+        <v>373.0843262844681</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451699</v>
+        <v>415.1281986451696</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024185</v>
+        <v>421.8454069024181</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105522</v>
+        <v>398.3366556105519</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193695</v>
+        <v>339.9711197193693</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645652</v>
+        <v>255.304152464565</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602331</v>
+        <v>148.508520260233</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031699</v>
+        <v>53.87360604031695</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903401</v>
+        <v>10.349169959034</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575032</v>
+        <v>0.1891338884575031</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682465</v>
+        <v>1.264944396682464</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111749</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770769</v>
+        <v>43.55181365770765</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777938</v>
+        <v>119.5095054777937</v>
       </c>
       <c r="K3" t="n">
-        <v>204.260780055519</v>
+        <v>204.2607800555188</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305502</v>
+        <v>274.65382613055</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102895</v>
+        <v>320.5080605102892</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704978</v>
+        <v>328.9909551704976</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808495</v>
+        <v>300.9624503808493</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489525</v>
+        <v>241.5488997489523</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361687</v>
+        <v>161.4690426361686</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910959</v>
+        <v>78.53751262910951</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820279</v>
+        <v>23.49578736820277</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908707</v>
+        <v>5.098613598908702</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753064</v>
+        <v>0.08322002609753057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,46 +31202,46 @@
         <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577932</v>
+        <v>9.428692530577925</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753761</v>
+        <v>31.89173301753759</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892078</v>
+        <v>74.97642311892072</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314784</v>
+        <v>123.2092950314783</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646947</v>
+        <v>157.6654781646946</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934102</v>
+        <v>166.23614039341</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308981</v>
+        <v>162.283416530898</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983902</v>
+        <v>149.8950014983901</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.261068943567</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780499</v>
+        <v>88.80131584780491</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776933</v>
+        <v>47.6833468877693</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472176</v>
+        <v>18.48139425472174</v>
       </c>
       <c r="T4" t="n">
-        <v>4.5311712570262</v>
+        <v>4.531171257026196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139838</v>
+        <v>0.05784473945139833</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523455</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P36" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7069902137629</v>
+        <v>188.7069902137627</v>
       </c>
       <c r="K2" t="n">
-        <v>404.7873098246361</v>
+        <v>404.7873098246358</v>
       </c>
       <c r="L2" t="n">
-        <v>440.8852535405141</v>
+        <v>137.3179113144809</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107296</v>
+        <v>184.7819654178968</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178118</v>
+        <v>467.9462633425458</v>
       </c>
       <c r="O2" t="n">
-        <v>168.2384441888655</v>
+        <v>549.0386254516105</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640999</v>
+        <v>430.5368321355824</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011574</v>
+        <v>245.3134532500202</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.7629141515359</v>
       </c>
       <c r="K3" t="n">
-        <v>66.41934108115998</v>
+        <v>330.8845780937384</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541352</v>
+        <v>506.939791654135</v>
       </c>
       <c r="M3" t="n">
-        <v>376.5556692322384</v>
+        <v>178.3740265882709</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451606</v>
+        <v>263.6376979891648</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131346</v>
+        <v>552.2285252131344</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745594</v>
+        <v>426.0372609745592</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014721</v>
+        <v>231.5645562859962</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055955</v>
+        <v>100.9398032055954</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250108</v>
+        <v>185.2555034250107</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552508</v>
+        <v>205.8200173552506</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101267</v>
+        <v>206.4155889101266</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124299</v>
+        <v>174.4801294124298</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084606</v>
+        <v>125.5396282084605</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110601</v>
+        <v>2.63927259611053</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>335.531557994323</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>142.0725371714029</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>37.16554713105221</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>559.3511648291917</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35178,13 +35178,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>214.2841923011931</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>336.5443602700703</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>368.6268117378475</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790109</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010411</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663302</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2174995.331990034</v>
+        <v>2176755.862292819</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>67.86204079079312</v>
       </c>
       <c r="G2" t="n">
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916698</v>
+        <v>1.360597680916641</v>
       </c>
       <c r="S2" t="n">
         <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
-        <v>194.7987448787258</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>98.51394015369115</v>
+        <v>98.51394015369117</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370742</v>
+        <v>45.8448191937074</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353362</v>
+        <v>21.62032152353358</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356351</v>
+        <v>148.187383735635</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -822,25 +822,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>42.92251201308751</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>40.82048829989655</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775205</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>53.90345055048468</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>201.3054287459128</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>52.8580594503003</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>122.0974423103674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>183.1828740622151</v>
+        <v>64.6868331683248</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.980384243200406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>198.5622246230542</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>76.17049831699767</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.387005480723</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175739982</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856934</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,16 +1897,16 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576166</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6452826062324948</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>145.2857567969026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>140.9144183062133</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>11.56087338713413</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>93.05052491174689</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>114.720561100776</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.594095449514675</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.8518831495031</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="38">
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>140.5758943588665</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.759001784194</v>
+        <v>2090.358196283344</v>
       </c>
       <c r="C2" t="n">
-        <v>880.7964848437823</v>
+        <v>1721.395679342932</v>
       </c>
       <c r="D2" t="n">
-        <v>880.7964848437823</v>
+        <v>1363.129980736182</v>
       </c>
       <c r="E2" t="n">
-        <v>880.7964848437823</v>
+        <v>977.3417281379373</v>
       </c>
       <c r="F2" t="n">
-        <v>469.8105800541747</v>
+        <v>908.7942121876412</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>491.6845516730793</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.520839851238</v>
+        <v>72.11519083088498</v>
       </c>
       <c r="K2" t="n">
-        <v>640.2602765776273</v>
+        <v>472.8546275572745</v>
       </c>
       <c r="L2" t="n">
-        <v>776.2050087789634</v>
+        <v>1022.283962163557</v>
       </c>
       <c r="M2" t="n">
-        <v>959.1391545426812</v>
+        <v>1650.236506085179</v>
       </c>
       <c r="N2" t="n">
-        <v>1422.405955251802</v>
+        <v>2273.717981125812</v>
       </c>
       <c r="O2" t="n">
-        <v>1965.954194448896</v>
+        <v>2494.726756291969</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.185658263123</v>
+        <v>2602.377499016428</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4360,22 +4360,22 @@
         <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2280.191627379056</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="U2" t="n">
-        <v>2026.498173824127</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="V2" t="n">
-        <v>2026.498173824127</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="W2" t="n">
-        <v>2026.498173824127</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="X2" t="n">
-        <v>2026.498173824127</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="Y2" t="n">
-        <v>1636.358841848316</v>
+        <v>2476.958036347466</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150749</v>
+        <v>99.00881771507488</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>170.2762045496333</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>497.8519368624344</v>
+        <v>118.4560672099611</v>
       </c>
       <c r="L3" t="n">
-        <v>999.722330600028</v>
+        <v>620.3264609475549</v>
       </c>
       <c r="M3" t="n">
-        <v>1176.312616922416</v>
+        <v>1257.964760382443</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.313937931689</v>
+        <v>1910.138639685152</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892693</v>
+        <v>2456.844879646155</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1874.827630379059</v>
+        <v>862.1314983912279</v>
       </c>
       <c r="C4" t="n">
-        <v>1705.891447451152</v>
+        <v>693.195315463321</v>
       </c>
       <c r="D4" t="n">
-        <v>1705.891447451152</v>
+        <v>543.0786760509852</v>
       </c>
       <c r="E4" t="n">
-        <v>1705.891447451152</v>
+        <v>395.1655824685921</v>
       </c>
       <c r="F4" t="n">
-        <v>1662.535374710659</v>
+        <v>248.2756349706818</v>
       </c>
       <c r="G4" t="n">
-        <v>1662.535374710659</v>
+        <v>207.0428185061398</v>
       </c>
       <c r="H4" t="n">
-        <v>1662.535374710659</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>1662.535374710659</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>1643.966933298789</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>1743.897338472328</v>
+        <v>152.6313247131524</v>
       </c>
       <c r="L4" t="n">
-        <v>1927.300286863089</v>
+        <v>336.0342731039131</v>
       </c>
       <c r="M4" t="n">
-        <v>2131.062104044787</v>
+        <v>539.7960902856112</v>
       </c>
       <c r="N4" t="n">
-        <v>2335.413537065812</v>
+        <v>744.1475233066365</v>
       </c>
       <c r="O4" t="n">
-        <v>2508.148865184117</v>
+        <v>916.882851424942</v>
       </c>
       <c r="P4" t="n">
-        <v>2632.433097110493</v>
+        <v>1041.167083351318</v>
       </c>
       <c r="Q4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="R4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="S4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="T4" t="n">
-        <v>2635.045976980643</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="U4" t="n">
-        <v>2345.893265246259</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="V4" t="n">
-        <v>2345.893265246259</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="W4" t="n">
-        <v>2056.476095209298</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="X4" t="n">
-        <v>2056.476095209298</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="Y4" t="n">
-        <v>2056.476095209298</v>
+        <v>1043.779963221468</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1679.276487146762</v>
+        <v>2431.707160065579</v>
       </c>
       <c r="C5" t="n">
-        <v>1679.276487146762</v>
+        <v>2062.744643125167</v>
       </c>
       <c r="D5" t="n">
-        <v>1321.010788540012</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E5" t="n">
-        <v>935.2225359417673</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F5" t="n">
-        <v>524.2366311521598</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G5" t="n">
-        <v>107.1488493885873</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4570,19 +4570,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>809.5785249674213</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>996.277937792829</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>1623.585605852676</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2431.707160065579</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.339374490333</v>
+        <v>2431.707160065579</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.276487146762</v>
+        <v>2431.707160065579</v>
       </c>
       <c r="W5" t="n">
-        <v>1679.276487146762</v>
+        <v>2431.707160065579</v>
       </c>
       <c r="X5" t="n">
-        <v>1679.276487146762</v>
+        <v>2431.707160065579</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.276487146762</v>
+        <v>2431.707160065579</v>
       </c>
     </row>
     <row r="6">
@@ -4652,7 +4652,7 @@
         <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>886.4908637115414</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M6" t="n">
         <v>1440.248516892441</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.6668354622486</v>
+        <v>106.0928987823404</v>
       </c>
       <c r="C7" t="n">
-        <v>350.7306525343417</v>
+        <v>106.0928987823404</v>
       </c>
       <c r="D7" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
         <v>52.70091953961285</v>
@@ -4761,16 +4761,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.635600998958</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W7" t="n">
-        <v>929.3048511905057</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X7" t="n">
-        <v>701.3153002924884</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.3153002924884</v>
+        <v>287.7413636125801</v>
       </c>
     </row>
     <row r="8">
@@ -4795,10 +4795,10 @@
         <v>555.957240890553</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4883,16 +4883,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>886.4908637115414</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1065.988200066146</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
         <v>1430.928743686615</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.70091953961285</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C10" t="n">
         <v>52.70091953961285</v>
@@ -4998,16 +4998,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>797.9511127930708</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>508.5339427561102</v>
+        <v>852.067697339307</v>
       </c>
       <c r="X10" t="n">
-        <v>280.5443918580929</v>
+        <v>624.0781464412896</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.75181271456276</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032921</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408944</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429841</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.615197557864</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000621</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614391</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355936</v>
@@ -5548,10 +5548,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5594,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>129.5921236250094</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.311282967905</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.456448622809</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.85498364575</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.779756989948</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1754.779756989948</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5831,19 +5831,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -6004,16 +6004,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6177,22 +6177,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6223,34 +6223,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356194</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1883.470651306724</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1628.786163100837</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.368993063876</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>1111.379442165859</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>984.5467179762953</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>815.6105350483884</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>665.4938956360527</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908938</v>
@@ -6615,10 +6615,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6779,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,28 +6949,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7134,13 +7134,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1433.70136564882</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434716</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155647</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>550.921708803229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>403.0086152208358</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,7 +7645,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111701</v>
@@ -7727,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>275.5139200367186</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>55.00274284765663</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>7.328121188872942</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>65.98845490200054</v>
+        <v>461.1122511579962</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>50.93934753390468</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>194.7955419930571</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>283.176005620424</v>
       </c>
       <c r="M6" t="n">
-        <v>378.0407240669646</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9634363311155</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-9.640568469461882e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-1.773338340300088e-13</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>72.44497470121469</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23466,13 +23466,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978925</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.44497470121425</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>114.1584408891694</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.72996410388916</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.8601746357971</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>193.1339494774973</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>31.71340154579313</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>147.0213775686977</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.73277020259169</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>4.845153664064782</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323795</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>595255.2831516057</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516056</v>
-      </c>
       <c r="E2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.284775254</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918869</v>
+        <v>787455.5478918871</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500592</v>
+        <v>4906.24700850046</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,10 +26377,10 @@
         <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909054</v>
+        <v>190891.9800909053</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707308</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707308</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707336</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707328</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707334</v>
+        <v>6897.424496707319</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707321</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707335</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707341</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707331</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-469592.8661017044</v>
+        <v>-469592.8661017042</v>
       </c>
       <c r="C6" t="n">
-        <v>313839.1458840107</v>
+        <v>313839.1458840104</v>
       </c>
       <c r="D6" t="n">
-        <v>318745.3928925112</v>
+        <v>318745.3928925113</v>
       </c>
       <c r="E6" t="n">
-        <v>-298874.3960763012</v>
+        <v>-298561.7547473803</v>
       </c>
       <c r="F6" t="n">
-        <v>476813.9512002832</v>
+        <v>477126.5925292042</v>
       </c>
       <c r="G6" t="n">
-        <v>476813.9512002831</v>
+        <v>477126.5925292037</v>
       </c>
       <c r="H6" t="n">
-        <v>476813.9512002831</v>
+        <v>477126.5925292043</v>
       </c>
       <c r="I6" t="n">
-        <v>476813.9512002831</v>
+        <v>477126.5925292041</v>
       </c>
       <c r="J6" t="n">
-        <v>304452.9588000019</v>
+        <v>304765.6001289237</v>
       </c>
       <c r="K6" t="n">
-        <v>476813.951200283</v>
+        <v>477126.5925292041</v>
       </c>
       <c r="L6" t="n">
-        <v>476813.9512002833</v>
+        <v>477126.592529204</v>
       </c>
       <c r="M6" t="n">
-        <v>348736.3543845689</v>
+        <v>349048.9957134907</v>
       </c>
       <c r="N6" t="n">
-        <v>476813.9512002834</v>
+        <v>477126.5925292044</v>
       </c>
       <c r="O6" t="n">
-        <v>476813.9512002833</v>
+        <v>477126.5925292037</v>
       </c>
       <c r="P6" t="n">
-        <v>476813.9512002827</v>
+        <v>477126.5925292043</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225494</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26810,19 +26810,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225491</v>
+        <v>588.0881844225494</v>
       </c>
       <c r="C3" t="n">
-        <v>5.38791591551588</v>
+        <v>5.387915915515736</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,10 +26971,10 @@
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.946793854488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>339.0140049509183</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359322</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>17.94793472637156</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.50480425168783</v>
+        <v>1.504804251687801</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>102.4985360098437</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>126.1100041686199</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.38275699775203</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>261.1374335247309</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>11.34643436905316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>95.75741356791207</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27833,16 +27833,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>164.4255560262235</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>229.7340298837217</v>
+        <v>348.230070777612</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.8515959387369</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28070,10 +28070,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>87.96077371353681</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-3.796617681797508e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-3.796617681797508e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-5.194312413142801e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718789</v>
+        <v>2.36417360571879</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956755</v>
+        <v>24.21209293956756</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447369</v>
+        <v>91.14480293447373</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683752</v>
+        <v>200.6562795683753</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984516</v>
+        <v>300.7317482984517</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844681</v>
+        <v>373.0843262844682</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451696</v>
+        <v>415.1281986451697</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024181</v>
+        <v>421.8454069024183</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105519</v>
+        <v>398.336655610552</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193693</v>
+        <v>339.9711197193694</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.304152464565</v>
+        <v>255.3041524645651</v>
       </c>
       <c r="R2" t="n">
         <v>148.508520260233</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031695</v>
+        <v>53.87360604031697</v>
       </c>
       <c r="T2" t="n">
-        <v>10.349169959034</v>
+        <v>10.34916995903401</v>
       </c>
       <c r="U2" t="n">
         <v>0.1891338884575031</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682464</v>
+        <v>1.264944396682465</v>
       </c>
       <c r="H3" t="n">
         <v>12.21669983111749</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770765</v>
+        <v>43.55181365770768</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777937</v>
+        <v>119.5095054777938</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555188</v>
+        <v>204.2607800555189</v>
       </c>
       <c r="L3" t="n">
-        <v>274.65382613055</v>
+        <v>274.6538261305501</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102892</v>
+        <v>320.5080605102893</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704976</v>
+        <v>328.9909551704977</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808493</v>
+        <v>300.9624503808494</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489523</v>
+        <v>241.5488997489524</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361686</v>
+        <v>161.4690426361687</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910951</v>
+        <v>78.53751262910956</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820277</v>
+        <v>23.49578736820278</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908702</v>
+        <v>5.098613598908704</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753057</v>
+        <v>0.08322002609753061</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,13 +31202,13 @@
         <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577925</v>
+        <v>9.428692530577928</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753759</v>
+        <v>31.8917330175376</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892072</v>
+        <v>74.97642311892075</v>
       </c>
       <c r="K4" t="n">
         <v>123.2092950314783</v>
@@ -31217,31 +31217,31 @@
         <v>157.6654781646946</v>
       </c>
       <c r="M4" t="n">
-        <v>166.23614039341</v>
+        <v>166.2361403934101</v>
       </c>
       <c r="N4" t="n">
         <v>162.283416530898</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983901</v>
+        <v>149.8950014983902</v>
       </c>
       <c r="P4" t="n">
-        <v>128.261068943567</v>
+        <v>128.2610689435671</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780491</v>
+        <v>88.80131584780496</v>
       </c>
       <c r="R4" t="n">
-        <v>47.6833468877693</v>
+        <v>47.68334688776931</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472174</v>
+        <v>18.48139425472175</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026196</v>
+        <v>4.531171257026198</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139833</v>
+        <v>0.05784473945139836</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33025,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33736,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,10 +33970,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,13 +34207,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7069902137627</v>
+        <v>19.61037504168903</v>
       </c>
       <c r="K2" t="n">
-        <v>404.7873098246358</v>
+        <v>404.7873098246359</v>
       </c>
       <c r="L2" t="n">
-        <v>137.3179113144809</v>
+        <v>554.9791258649313</v>
       </c>
       <c r="M2" t="n">
-        <v>184.7819654178968</v>
+        <v>634.2954989107295</v>
       </c>
       <c r="N2" t="n">
-        <v>467.9462633425458</v>
+        <v>629.7792677178115</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516105</v>
+        <v>223.2411870365219</v>
       </c>
       <c r="P2" t="n">
-        <v>430.5368321355824</v>
+        <v>108.7381239640998</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.3134532500202</v>
+        <v>32.99846259011565</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>118.7629141515359</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937384</v>
+        <v>66.4193410811599</v>
       </c>
       <c r="L3" t="n">
-        <v>506.939791654135</v>
+        <v>506.9397916541351</v>
       </c>
       <c r="M3" t="n">
-        <v>178.3740265882709</v>
+        <v>644.0790903382709</v>
       </c>
       <c r="N3" t="n">
-        <v>263.6376979891648</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131344</v>
+        <v>552.2285252131345</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745592</v>
+        <v>158.5138398685269</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859962</v>
+        <v>21.48726855014715</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055954</v>
+        <v>100.9398032055955</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250107</v>
+        <v>185.2555034250108</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552506</v>
+        <v>205.8200173552507</v>
       </c>
       <c r="N4" t="n">
         <v>206.4155889101266</v>
@@ -34874,10 +34874,10 @@
         <v>174.4801294124298</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084605</v>
+        <v>125.5396282084606</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.63927259611053</v>
+        <v>2.639272596110573</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>335.531557994323</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35020,10 +35020,10 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>421.7917611918321</v>
       </c>
       <c r="M6" t="n">
-        <v>559.3511648291917</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
-        <v>368.6268117378475</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
